--- a/planilha2.xlsx
+++ b/planilha2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>ARQUIVO 2</t>
   </si>
@@ -362,7 +362,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -372,7 +372,13 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
   </sheetData>
